--- a/biology/Botanique/Dartrier/Dartrier.xlsx
+++ b/biology/Botanique/Dartrier/Dartrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna alata
 Le Dartrier dénommé aussi casse ailé ou Cassia alata ou Kassialata, de son binomial   Senna alata (L.) Roxb, est une plante arborescente de la famille des Caesalpiniaceae, ou des Fabaceae, sous-famille des Caesalpinioideae, selon la classification phylogénétique. Il appartient à la tribu des Cassieae
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna alata est originaire du Mexique, et peut être trouvé dans divers habitats. Sous les tropiques, il pousse jusqu'à une altitude de 1200 m. Il est considéré comme une espèce invasive dans différents pays d'Austronésie. Au Sri Lanka, connu sous le nom Ranawara (රණවරා), il est utilisé comme ingrédient dans la médecine traditionnelle cinghalaise.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbuste mesure 3-4 m de haut, avec des feuilles composées de 50-80 cm de long.
 Il a un feuillage ornemental s’ouvrant le matin et se fermant le soir ; les feuilles sont composées-pennées.
@@ -579,7 +595,9 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna alata est souvent appelé le buisson de la teigne en raison de ses propriétés fongicides très efficaces pour traiter la teigne et d'autres infections fongiques de la peau. Les feuilles sont broyées dans un mortier pour obtenir une sorte de « coton vert ». Celui-ci est mélangé avec la même quantité d'huile végétale et frotté sur la zone affectée deux ou trois fois par jour. Une préparation fraîche est faite chaque jour. 
 Ses ingrédients actifs comprennent de l'acide chrysophanique.
@@ -612,7 +630,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cassia alata L.</t>
         </is>
